--- a/pred_ohlcv/54_21/2020-01-14 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-15306.6118</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-6206.856299999997</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6226.089899999996</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6408.340199999996</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-9964.506499999996</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-12292.756</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-26392.2851</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-27236.9535</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-25799.198800991</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-31402.830000991</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-26395.861700991</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-26469.549900991</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-27469.549900991</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-27426.616300991</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-30024.345500991</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30316.672400991</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-30289.044500991</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-35601.482400991</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-35598.482400991</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-35641.416000991</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-35883.473400991</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-35860.146500991</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-68181.079300991</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-113793.359460991</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-115175.426160991</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-115118.367060991</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-118352.371860991</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-127302.246760991</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-127799.129260991</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-127533.379260991</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-127600.379260991</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-128593.742360991</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-128658.042360991</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-118910.209060991</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-210439.6542609909</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-210543.9757609909</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-204520.2543609909</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-206104.8235609909</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-206102.2235609909</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-206402.2235609909</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-205340.2173609909</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-204805.6074609909</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-204805.6074609909</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-204743.6074609909</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-204759.9333609909</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-204793.6876609909</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-186161.4865609909</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-185841.2971609909</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-185345.9202609909</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-190154.4577609909</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-182497.1130609909</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-181887.6622609909</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-174866.0925033909</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-173701.0754033909</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 DAD ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6536.089899999996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6226.089899999996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6408.340199999996</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-9964.506499999996</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-26392.2851</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-27236.9535</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-25799.198800991</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-31402.830000991</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-26395.861700991</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-26469.549900991</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-27426.616300991</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-30024.345500991</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30316.672400991</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-30289.044500991</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-35601.482400991</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-35598.482400991</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-35641.416000991</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-35883.473400991</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-68181.079300991</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-113793.359460991</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-115175.426160991</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-115118.367060991</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-118352.371860991</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-127302.246760991</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-127799.129260991</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-127533.379260991</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-127600.379260991</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-128593.742360991</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-128658.042360991</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-118902.472560991</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-118910.209060991</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-200471.241060991</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-204520.2543609909</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-206104.8235609909</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-204759.9333609909</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-204793.6876609909</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-186161.4865609909</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-185841.2971609909</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-185345.9202609909</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-190154.4577609909</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-182497.1130609909</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-181887.6622609909</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-173884.3738609909</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-174866.0925033909</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-173701.0754033909</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
